--- a/visitor_data.xlsx
+++ b/visitor_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,111 +449,71 @@
           <t>Address</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Abhimanyu rathore</t>
+          <t>Mohit chhabra</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9667151066</v>
+        <v>9560966122</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bhondsi</t>
+          <t>Gurgaon</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://curovms.com/VP/VisitorPass.aspx?i=68109284546219</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mohit chhabra</t>
+          <t>Abhimanyu rathore</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9560966122</v>
+        <v>9667151066</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Gurgaon</t>
+          <t>Bhondsi</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://curovms.com/VP/VisitorPass.aspx?i=25858309136619</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Abhimanyu rathore</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>9667151066</v>
+          <t>Mohit chhabra</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9560966122</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Bhondsi</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Abhimanyu rathore</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9667151066</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Bhondsi</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Mohit chhabra</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>9560966122</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
           <t>Gurgaon</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Abhimanyu rathore</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>9667151066</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Bhondsi</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Mohit chhabra</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>9560966122</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Gurgaon</t>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://curovms.com/VP/VisitorPass.aspx?i=68109284546219</t>
         </is>
       </c>
     </row>
